--- a/Source_Data/precio_alquileres/precio_monoambiente.xlsx
+++ b/Source_Data/precio_alquileres/precio_monoambiente.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago Viezzoli\Desktop\Bootcamp Jupi Analisis de datos\ProyectoJupi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago Viezzoli\Desktop\Bootcamp Jupi Analisis de datos\ProyectoJupi\Source_Data\precio_alquileres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6F48D3-95B6-429C-B186-160DD01E7DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DD3621-F17F-41C1-BA81-785E14943B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FBB9D949-0400-4FAF-8988-1E4B1706A2AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Barrio</t>
   </si>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9B46BF-FDC9-437A-9CF2-338ABF81C5CF}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>390000</v>
+        <v>382500</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,23 +620,23 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>375000</v>
+        <v>370000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>370000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>360000</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>360000</v>
@@ -652,23 +652,23 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>360000</v>
+        <v>355000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>355000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>350000</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>350000</v>
@@ -684,15 +684,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>350000</v>
+        <v>335000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>335000</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>335000</v>
@@ -708,15 +708,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>335000</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>330000</v>
@@ -724,15 +724,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>330000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>320000</v>
@@ -740,41 +740,33 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>320000</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>315000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>300000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>290000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
         <v>290000</v>
       </c>
     </row>
